--- a/burndown-chart.xlsx
+++ b/burndown-chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milo\Documents\GitHub\File-Storage-System\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -97,6 +97,60 @@
   <si>
     <t>Task 15</t>
   </si>
+  <si>
+    <t>Sprint One</t>
+  </si>
+  <si>
+    <t>Sprint Two</t>
+  </si>
+  <si>
+    <t>Sprint One Tasks</t>
+  </si>
+  <si>
+    <t>Sprint Two Tasks</t>
+  </si>
+  <si>
+    <t>Sprint One Catchup</t>
+  </si>
+  <si>
+    <t>Total Times</t>
+  </si>
+  <si>
+    <t>Task 1: Find dynamic HTML solution to work cross platform</t>
+  </si>
+  <si>
+    <t>Task 2: Modify for current use</t>
+  </si>
+  <si>
+    <t>Task 3: Implement HTML solution</t>
+  </si>
+  <si>
+    <t>Task 4: Test on all browsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task 5: Create login sequence (simple &amp; Google) </t>
+  </si>
+  <si>
+    <t>Task 6: Store user login information</t>
+  </si>
+  <si>
+    <t>Task 7: Utilise personal information on website</t>
+  </si>
+  <si>
+    <t>Task 8: Implement security for user information</t>
+  </si>
+  <si>
+    <t>Task 9: Find plugin for media streaming</t>
+  </si>
+  <si>
+    <t>Task 10: Adapt web player for our use</t>
+  </si>
+  <si>
+    <t>Task 11: Preview setup for several file types</t>
+  </si>
+  <si>
+    <t>Task 12: Create custom preview window</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +212,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -269,50 +329,285 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,6 +674,15 @@
               <a:rPr lang="en-AU" baseline="0"/>
               <a:t> Chart</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t>Sprint One</a:t>
+            </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
@@ -435,11 +739,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$18</c:f>
+              <c:f>Sheet1!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -451,7 +755,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -468,7 +772,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$G$1</c:f>
+              <c:f>Sheet1!$D$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -488,7 +792,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$G$18</c:f>
+              <c:f>Sheet1!$C$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -505,7 +809,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,16 +817,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-723D-4554-B752-225B0F476194}"/>
+              <c16:uniqueId val="{0000000E-31ED-4378-BA5C-81D197AE0AC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$19</c:f>
+              <c:f>Sheet1!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -534,7 +838,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -551,7 +855,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$1:$G$1</c:f>
+              <c:f>Sheet1!$D$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -571,7 +875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$G$19</c:f>
+              <c:f>Sheet1!$C$21:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -596,7 +900,487 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-723D-4554-B752-225B0F476194}"/>
+              <c16:uniqueId val="{0000000F-31ED-4378-BA5C-81D197AE0AC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="547058008"/>
+        <c:axId val="547058336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547058008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547058336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547058336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547058008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Burndown</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t>Sprint Two</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4095600632702368E-2"/>
+          <c:y val="0.11010128573199696"/>
+          <c:w val="0.9382443552171873"/>
+          <c:h val="0.66964448501437912"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Week One</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week Two</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week Three</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Week Four</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C973-426F-8CB9-BB4BAEC97B46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated Remaining Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Week One</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week Two</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week Three</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Week Four</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C973-426F-8CB9-BB4BAEC97B46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -843,6 +1627,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -1339,20 +2163,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1372,6 +2692,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>46266</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44224</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC3BC51-18C6-48AA-9C79-BB006C7C4AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1677,474 +3035,1423 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I19"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="29.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="15" customWidth="1"/>
+    <col min="7" max="10" width="12.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="68.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" style="15" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="2:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="20"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="23" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C4" s="19">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="18">
-        <f>SUM(D2:G2)</f>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19">
+        <f>SUM(D4:G4)</f>
         <v>2</v>
       </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="43">
+        <v>2</v>
+      </c>
+      <c r="M4" s="33">
+        <v>1</v>
+      </c>
+      <c r="N4" s="33">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19">
+        <f>SUM(M4:P4)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C5" s="19">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
         <v>3</v>
       </c>
-      <c r="I3" s="18">
-        <f>SUM(D3:G3)</f>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19">
+        <f>SUM(D5:G5)</f>
         <v>4</v>
       </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="43">
+        <v>2</v>
+      </c>
+      <c r="M5" s="19">
+        <v>2</v>
+      </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19">
+        <f>SUM(M5:P5)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C6" s="19">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19">
+        <f>SUM(D6:G6)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="18">
-        <f>SUM(D4:G4)</f>
+      <c r="J6" s="7"/>
+      <c r="K6" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="43">
+        <v>2</v>
+      </c>
+      <c r="M6" s="19">
+        <v>2</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19">
+        <f>SUM(M6:P6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <f>SUM(D7:G7)</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="43">
+        <v>2</v>
+      </c>
+      <c r="M7" s="19">
+        <v>2</v>
+      </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19">
+        <f>SUM(M7:P7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19">
+        <f>SUM(D8:G8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="43">
         <v>3</v>
       </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19">
+        <f>SUM(M8:P8)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19">
+        <f>SUM(D9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="43">
+        <v>2</v>
+      </c>
+      <c r="M9" s="19">
+        <v>0</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
+        <f>SUM(M9:P9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19">
+        <f>SUM(D10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="43">
+        <v>3</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18">
-        <f>SUM(D5:G5)</f>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19">
+        <f>SUM(M10:P10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="10">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="19">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19">
+        <f>SUM(D11:G11)</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="43">
+        <v>3</v>
+      </c>
+      <c r="M11" s="19">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19">
+        <f>SUM(M11:P11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19">
+        <f>SUM(D12:G12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="43">
+        <v>2</v>
+      </c>
+      <c r="M12" s="19">
+        <v>2</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19">
+        <f>SUM(M12:P12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="19">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19">
+        <f>SUM(D13:G13)</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="43">
+        <v>2</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19">
+        <f>SUM(M13:P13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="19">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19">
+        <f>SUM(D14:G14)</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="43">
+        <v>2</v>
+      </c>
+      <c r="M14" s="19">
         <v>1</v>
       </c>
-      <c r="I6" s="18">
-        <f>SUM(D6:G6)</f>
+      <c r="N14" s="19">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19">
+        <f>SUM(M14:P14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <f>SUM(D7:G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
-        <f>SUM(D8:G8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18">
-        <f>SUM(D9:G9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
-        <f>SUM(D10:G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="I11" s="18">
-        <f>SUM(D11:G11)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2</v>
-      </c>
-      <c r="I12" s="18">
-        <f>SUM(D12:G12)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <f>SUM(D13:G13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="10">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <f>SUM(D14:G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19">
         <f>SUM(D15:G15)</f>
         <v>1</v>
       </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="43">
+        <v>2</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19">
+        <f>SUM(M15:P15)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19">
+        <f>SUM(D16:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="19">
+        <f>SUM(M16:P16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="19">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
+        <f>SUM(D17:G17)</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="19">
+        <f>SUM(M17:P17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C18" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18">
-        <f>SUM(D16:G16)</f>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19">
+        <f>SUM(D18:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="19">
+        <f>SUM(M18:P18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="3" t="s">
+    <row r="19" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="16">
-        <f>SUM(I2:I16)</f>
+      <c r="I19" s="46">
+        <f>SUM(I4:I18)</f>
+        <v>17</v>
+      </c>
+      <c r="J19" s="27"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="46">
+        <f>SUM(R4:R18)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17">
+        <f>C21</f>
+        <v>44</v>
+      </c>
+      <c r="D20" s="21">
+        <f>C20-SUM(D4:D18)</f>
+        <v>39</v>
+      </c>
+      <c r="E20" s="17">
+        <f>D20-SUM(E4:E18)</f>
+        <v>39</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" ref="F20" si="0">E20-SUM(F4:F18)</f>
+        <v>39</v>
+      </c>
+      <c r="G20" s="17">
+        <f>F20-SUM(G4:G18)</f>
+        <v>27</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="16">
+        <f>C20-I19</f>
+        <v>27</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="17">
+        <f>SUM(L24:L38)+SUM(L4:L18)</f>
+        <v>54</v>
+      </c>
+      <c r="M20" s="21">
+        <f>L20-(SUM(M24:M38)+SUM(M4:M18))</f>
+        <v>40</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20:P20" si="1">M20-(SUM(N24:N38)+SUM(N4:N18))</f>
+        <v>37</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="16">
+        <f>L20-(SUM(R4:R18)+SUM(R24:R38))</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
         <v>18</v>
       </c>
+      <c r="C21" s="17">
+        <f>SUM(C4:C18)</f>
+        <v>44</v>
+      </c>
+      <c r="D21" s="21">
+        <f>C21-($C$21/5)</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E21" s="17">
+        <f>D21-($C$21/5)</f>
+        <v>26.400000000000002</v>
+      </c>
+      <c r="F21" s="21">
+        <f>E21-($C$21/5)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G21" s="17">
+        <f>F21-($C$21/5)</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="19">
+        <f>SUM(L4:L18)</f>
+        <v>27</v>
+      </c>
+      <c r="M21" s="7">
+        <f>L21-($L$21/5)</f>
+        <v>21.6</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" ref="N21:P21" si="2">M21-($L$21/5)</f>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="2"/>
+        <v>10.800000000000002</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="2"/>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="16">
-        <f>C19</f>
-        <v>44</v>
-      </c>
-      <c r="D18" s="17">
-        <f>C18-SUM(D2:D16)</f>
-        <v>39</v>
-      </c>
-      <c r="E18" s="16">
-        <f>D18-SUM(E2:E16)</f>
-        <v>39</v>
-      </c>
-      <c r="F18" s="17">
-        <f t="shared" ref="E18:G18" si="0">E18-SUM(F2:F16)</f>
-        <v>39</v>
-      </c>
-      <c r="G18" s="16">
-        <f>F18-SUM(G2:G16)</f>
-        <v>26</v>
-      </c>
+    <row r="22" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="23"/>
+      <c r="L22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="20"/>
     </row>
-    <row r="19" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="12">
-        <f>SUM(C2:C16)</f>
-        <v>44</v>
-      </c>
-      <c r="D19" s="2">
-        <f>C19-($C$19/5)</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E19" s="12">
-        <f>D19-($C$19/5)</f>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="F19" s="2">
-        <f>E19-($C$19/5)</f>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G19" s="12">
-        <f>F19-($C$19/5)</f>
-        <v>8.8000000000000007</v>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K24" s="49" t="str">
+        <f>B4</f>
+        <v>Task 1</v>
+      </c>
+      <c r="L24" s="19">
+        <f>C4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="19">
+        <v>0</v>
+      </c>
+      <c r="O24" s="29">
+        <v>0</v>
+      </c>
+      <c r="P24" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19">
+        <f>SUM(M24:P24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K25" s="47" t="str">
+        <f t="shared" ref="K25:K38" si="3">B5</f>
+        <v>Task 2</v>
+      </c>
+      <c r="L25" s="19">
+        <f>C5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="19">
+        <v>0</v>
+      </c>
+      <c r="O25" s="29">
+        <v>0</v>
+      </c>
+      <c r="P25" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19">
+        <f>SUM(M25:P25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K26" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Task 3 </v>
+      </c>
+      <c r="L26" s="19">
+        <f>C6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
+        <v>0</v>
+      </c>
+      <c r="O26" s="29">
+        <v>0</v>
+      </c>
+      <c r="P26" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19">
+        <f>SUM(M26:P26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K27" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 4</v>
+      </c>
+      <c r="L27" s="19">
+        <f>C7-I7</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <v>0</v>
+      </c>
+      <c r="O27" s="29">
+        <v>0</v>
+      </c>
+      <c r="P27" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19">
+        <f>SUM(M27:P27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K28" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 5</v>
+      </c>
+      <c r="L28" s="19">
+        <f>C8-I8</f>
+        <v>4</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="19">
+        <v>0</v>
+      </c>
+      <c r="O28" s="29">
+        <v>0</v>
+      </c>
+      <c r="P28" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19">
+        <f>SUM(M28:P28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K29" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 6</v>
+      </c>
+      <c r="L29" s="19">
+        <f>C9-I9</f>
+        <v>2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="19">
+        <v>0</v>
+      </c>
+      <c r="O29" s="29">
+        <v>0</v>
+      </c>
+      <c r="P29" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19">
+        <f>SUM(M29:P29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K30" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 7</v>
+      </c>
+      <c r="L30" s="19">
+        <f>C10-I10</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="19">
+        <v>0</v>
+      </c>
+      <c r="O30" s="29">
+        <v>0</v>
+      </c>
+      <c r="P30" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19">
+        <f>SUM(M30:P30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K31" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 8</v>
+      </c>
+      <c r="L31" s="19">
+        <f>C11-I11</f>
+        <v>2</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="19">
+        <v>0</v>
+      </c>
+      <c r="O31" s="29">
+        <v>0</v>
+      </c>
+      <c r="P31" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19">
+        <f>SUM(M31:P31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K32" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Task 9 </v>
+      </c>
+      <c r="L32" s="19">
+        <f>C12-I12</f>
+        <v>1</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="19">
+        <v>0</v>
+      </c>
+      <c r="O32" s="29">
+        <v>0</v>
+      </c>
+      <c r="P32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19">
+        <f>SUM(M32:P32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K33" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Task 10 </v>
+      </c>
+      <c r="L33" s="19">
+        <f>C13-I13</f>
+        <v>3</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="19">
+        <v>0</v>
+      </c>
+      <c r="O33" s="29">
+        <v>0</v>
+      </c>
+      <c r="P33" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19">
+        <f>SUM(M33:P33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K34" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 11</v>
+      </c>
+      <c r="L34" s="19">
+        <f>C14-I14</f>
+        <v>3</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="19">
+        <v>0</v>
+      </c>
+      <c r="O34" s="29">
+        <v>0</v>
+      </c>
+      <c r="P34" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19">
+        <f>SUM(M34:P34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K35" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 12</v>
+      </c>
+      <c r="L35" s="19">
+        <f>C15-I15</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
+        <v>0</v>
+      </c>
+      <c r="O35" s="29">
+        <v>0</v>
+      </c>
+      <c r="P35" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19">
+        <f>SUM(M35:P35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K36" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 13</v>
+      </c>
+      <c r="L36" s="19">
+        <f>C16-I16</f>
+        <v>5</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="19">
+        <v>0</v>
+      </c>
+      <c r="O36" s="29">
+        <v>0</v>
+      </c>
+      <c r="P36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19">
+        <f>SUM(M36:P36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K37" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 14</v>
+      </c>
+      <c r="L37" s="19">
+        <f>C17-I17</f>
+        <v>2</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="19">
+        <v>0</v>
+      </c>
+      <c r="O37" s="29">
+        <v>0</v>
+      </c>
+      <c r="P37" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19">
+        <f>SUM(M37:P37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K38" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v>Task 15</v>
+      </c>
+      <c r="L38" s="17">
+        <f>C18-I18</f>
+        <v>3</v>
+      </c>
+      <c r="M38" s="21">
+        <v>0</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="31">
+        <v>0</v>
+      </c>
+      <c r="P38" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17">
+        <f>SUM(M38:P38)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K16:Q18"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L22:P22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
